--- a/data/georgia_census/samegrelo/poti/age_dependency.xlsx
+++ b/data/georgia_census/samegrelo/poti/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E616AAB-5006-49D1-8586-620E08B57402}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D4CDFF6-B067-435B-BD51-D82880C5A122}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F278497-4E0A-486A-B0F9-C6BB8311BBD9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024775A0-4252-4C94-B0AC-94CE2150E6B8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BA4309-91D5-4546-B313-22A2561C34E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5F73AC9-0E74-45D6-ABA3-8FF2E60A102E}"/>
 </file>